--- a/data/trans_dic/P22$ss-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P22$ss-Edad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.9686879305749919</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.9695571902480071</v>
+        <v>0.969557190248007</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9495565987375771</v>
+        <v>0.9490440026105539</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9393010075177065</v>
+        <v>0.9378973776502028</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9459271189895946</v>
+        <v>0.941732277346449</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.9184549118143709</v>
+        <v>0.9158848519246102</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.9147171259297112</v>
+        <v>0.9147700014928395</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.9508147855528558</v>
+        <v>0.9490531948216721</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.9508728737892663</v>
+        <v>0.9512489744050429</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.9459402797235823</v>
+        <v>0.944712507122732</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.9385141625878628</v>
+        <v>0.9378136837284459</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.9487966220396975</v>
+        <v>0.9507587908115672</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.9539941608461624</v>
+        <v>0.9554291367169476</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.9430664974535633</v>
+        <v>0.9445962610599055</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9812338966541777</v>
+        <v>0.9791421756898852</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9764536144399939</v>
+        <v>0.9765183441747348</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9821601163250254</v>
+        <v>0.9821091958710638</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9828878676648626</v>
+        <v>0.9835808957978238</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9565905989692766</v>
+        <v>0.9623820087946109</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9845583956196046</v>
+        <v>0.9841867915729228</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9850233678860074</v>
+        <v>0.9851448395479546</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9964790866298614</v>
+        <v>0.9934448565223517</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9668252332743272</v>
+        <v>0.9661053888103067</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.9761238539011255</v>
+        <v>0.9767532800416856</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.978996202857746</v>
+        <v>0.9790929112938302</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.9848251246163493</v>
+        <v>0.9854816360763515</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.9581141635549166</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.9660991353652825</v>
+        <v>0.9660991353652826</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.9502342227819788</v>
@@ -821,7 +821,7 @@
         <v>0.9627683370798698</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.9799408472985703</v>
+        <v>0.9799408472985702</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.9560425643372115</v>
@@ -833,7 +833,7 @@
         <v>0.9603830633591286</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.9731838319173916</v>
+        <v>0.9731838319173917</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.9431540970022897</v>
+        <v>0.9449346787610632</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9374115028535708</v>
+        <v>0.935369202990935</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.9388941523727199</v>
+        <v>0.9403641561621707</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.9395474340277677</v>
+        <v>0.9390963532058486</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.9277182764162035</v>
+        <v>0.9305591520694207</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.9403547415043449</v>
+        <v>0.9409334481114751</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.9443536626715974</v>
+        <v>0.9425125853373165</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.961529261985558</v>
+        <v>0.9626046052023262</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.9428075500845443</v>
+        <v>0.9418922297559962</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.9450979769867318</v>
+        <v>0.9455050478552858</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.9476027026232076</v>
+        <v>0.949214814082612</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.9571922513852797</v>
+        <v>0.956243206764519</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9737907715650961</v>
+        <v>0.9753219322498341</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9702844194162044</v>
+        <v>0.9705661234688242</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9730534488306025</v>
+        <v>0.9730923919944263</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9840969836631885</v>
+        <v>0.9850850639201462</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9662845777085257</v>
+        <v>0.9655023190830512</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.9741795766836839</v>
+        <v>0.9745592237966688</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9757691852884743</v>
+        <v>0.9763143595290498</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.9904701344056304</v>
+        <v>0.9904350631720282</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.9660942968461552</v>
+        <v>0.9651483473006328</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.9676172447060842</v>
+        <v>0.9691688895365527</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.9706079702530436</v>
+        <v>0.9711198488278023</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.9840272416289784</v>
+        <v>0.9837546217717243</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9380592647168163</v>
+        <v>0.9385372885047029</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9223169560728162</v>
+        <v>0.9233834622126799</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9138383394843629</v>
+        <v>0.9153424012313736</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.9474833992636024</v>
+        <v>0.945949586574882</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.9439511643322616</v>
+        <v>0.9428059043449988</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.94594592960765</v>
+        <v>0.9466461583111841</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.9326420308449263</v>
+        <v>0.9327671071199958</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.9527285227900704</v>
+        <v>0.9541632646842922</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.94732987082805</v>
+        <v>0.9467022459072308</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.9422342355188827</v>
+        <v>0.9414178722803241</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.9302797828122503</v>
+        <v>0.9293369746692824</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.9556387562580342</v>
+        <v>0.9562635187483396</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9727142975349785</v>
+        <v>0.9735684737590937</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9613990607502894</v>
+        <v>0.9619411254129935</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9559198140887368</v>
+        <v>0.9554456961041299</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9796111884741494</v>
+        <v>0.9794668424458859</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9752246999653034</v>
+        <v>0.9740529387990514</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9778487774141637</v>
+        <v>0.9778192402744489</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9660174352862595</v>
+        <v>0.9659789784264639</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9780022726685116</v>
+        <v>0.9789936002705025</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9700568695198076</v>
+        <v>0.9698962324578813</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.967399479127108</v>
+        <v>0.9663385075401915</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.955751747550789</v>
+        <v>0.9560030083418559</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.9754367591352925</v>
+        <v>0.9761905894294528</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.9451684619121256</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9590025444492963</v>
+        <v>0.9590025444492964</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.9571501715922186</v>
@@ -1093,7 +1093,7 @@
         <v>0.9607905948563821</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.965571785841238</v>
+        <v>0.9655717858412377</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.9426643416836997</v>
@@ -1105,7 +1105,7 @@
         <v>0.9529919009312006</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.96237003841393</v>
+        <v>0.9623700384139302</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9011361681833417</v>
+        <v>0.9011331742839738</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.922907465050358</v>
+        <v>0.9203770016119067</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9231931899115702</v>
+        <v>0.9205332033209845</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9414502808528404</v>
+        <v>0.9418476039466911</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9347588808538808</v>
+        <v>0.9366062054853087</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.9168312053127877</v>
+        <v>0.9175488582467377</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9427705500091597</v>
+        <v>0.9429620588970825</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.9532661780685082</v>
+        <v>0.9525170221474678</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.9281573832025578</v>
+        <v>0.9260313968873889</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.9274433928975178</v>
+        <v>0.9279822041007635</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.9388470169053369</v>
+        <v>0.9384874654553124</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.9514842849744787</v>
+        <v>0.9514641275301446</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9486979371529448</v>
+        <v>0.9485184688175564</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9679333499874796</v>
+        <v>0.9674933040747411</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9624350335386482</v>
+        <v>0.9621161295555828</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9753473252665925</v>
+        <v>0.9725734794078863</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9721288839539791</v>
+        <v>0.9725720946511069</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.9613047660377609</v>
+        <v>0.9621759987349079</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9743260099943495</v>
+        <v>0.9751318810940394</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.9751849274381367</v>
+        <v>0.9745745040059426</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.9564404157482085</v>
+        <v>0.9565026993072427</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.9584469617793943</v>
+        <v>0.9589300564026151</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.9635282734684814</v>
+        <v>0.9634181866247843</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.9706355547939786</v>
+        <v>0.9716153456260411</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.9394827415874419</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.9677507237358276</v>
+        <v>0.9677507237358279</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.9339992677748596</v>
@@ -1229,7 +1229,7 @@
         <v>0.9689789922915023</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.9649826877848302</v>
+        <v>0.9649826877848307</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.9510412473789513</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.948168634094167</v>
+        <v>0.9476355178343184</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9211642776395115</v>
+        <v>0.9144061345624185</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9153029389968006</v>
+        <v>0.912833025857769</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9493642201660601</v>
+        <v>0.9525144125234025</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9060531934216373</v>
+        <v>0.9047419683452332</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.942541052101727</v>
+        <v>0.941730646811002</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9477108325667625</v>
+        <v>0.9473397803490196</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.9517376195374394</v>
+        <v>0.9520475614905517</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.9322405626132806</v>
+        <v>0.9328131558576455</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.9365533016892571</v>
+        <v>0.9359063394523601</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.9398573440432985</v>
+        <v>0.9379789260528316</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.9567889221386849</v>
+        <v>0.9568925260251023</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9814102680814415</v>
+        <v>0.9827567568633174</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9686895188121042</v>
+        <v>0.9656434930392032</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9587553125858888</v>
+        <v>0.9603162891600656</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9791161245053236</v>
+        <v>0.9786905227429165</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9563924468060779</v>
+        <v>0.9575687943697543</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.982278864241135</v>
+        <v>0.9815840440620768</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9822845440562472</v>
+        <v>0.9832459478113864</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9750035188595466</v>
+        <v>0.9746824247943435</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.9642389283496561</v>
+        <v>0.9638526916954921</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.9694916429243353</v>
+        <v>0.9698172887969022</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.9675910717264408</v>
+        <v>0.9675544493835465</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.9743664728174762</v>
+        <v>0.973873027608113</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.9599588332633446</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.9594352879483922</v>
+        <v>0.9594352879483921</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.9578158209266053</v>
@@ -1377,7 +1377,7 @@
         <v>0.9609784108488947</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.9539938653793575</v>
+        <v>0.9539938653793576</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.927632382776196</v>
+        <v>0.9286818239974672</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.905555599167001</v>
+        <v>0.9032098977854545</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9354796630247459</v>
+        <v>0.9333665876158203</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9280003183340957</v>
+        <v>0.9278994635716564</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9335190309796269</v>
+        <v>0.9361562008915681</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.9622977023084205</v>
+        <v>0.9611487539157985</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.933657641116418</v>
+        <v>0.9353792795900736</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.9433152832422403</v>
+        <v>0.9437795560555807</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.9411308045327255</v>
+        <v>0.9398847603318328</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.9433491226207463</v>
+        <v>0.9447621051280782</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.9426362607226783</v>
+        <v>0.9445822318640572</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.9416659706020487</v>
+        <v>0.9416671523910581</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9774752838895451</v>
+        <v>0.9746361109769464</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9669666837128301</v>
+        <v>0.9683001551664399</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9780343664652614</v>
+        <v>0.9801567783153639</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9636313255447621</v>
+        <v>0.9647911996327191</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9763240173891262</v>
+        <v>0.9762726857659</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.9922835902503354</v>
+        <v>0.9921517541423523</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9784176907835895</v>
+        <v>0.9788706335011824</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.9719353703428127</v>
+        <v>0.9704670279447316</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.9714596366393503</v>
+        <v>0.9704271313804387</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.9772102520030016</v>
+        <v>0.9773720248046018</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.9741385956677999</v>
+        <v>0.9739846701885159</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.9640621030697029</v>
+        <v>0.9644271378420916</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.9842698801549926</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.969166875860913</v>
+        <v>0.9691668758609129</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.9364819020822003</v>
+        <v>0.9367055881374552</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.9542398004386882</v>
+        <v>0.955708738295621</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.9484372213538514</v>
+        <v>0.9537207097232328</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.9407314173474643</v>
+        <v>0.9399615473325538</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9657540205733162</v>
+        <v>0.9658519183239495</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.9481515669036825</v>
+        <v>0.9474726749099764</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.9746942984772359</v>
+        <v>0.9742274263477469</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.9612276859251818</v>
+        <v>0.9590278532752532</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.9644063802415352</v>
+        <v>0.9613067871116057</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.9592740874705817</v>
+        <v>0.9590559791554483</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.9709647974500385</v>
+        <v>0.971226996182495</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.9574664153665088</v>
+        <v>0.9569941862555343</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9878426764282928</v>
+        <v>0.9877528497307853</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9921462058630421</v>
+        <v>0.991985474571356</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9875231434677691</v>
+        <v>0.990181233892602</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9779910657894495</v>
+        <v>0.9771800929920198</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9964438577892257</v>
+        <v>0.9964929146696384</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.988510963485661</v>
+        <v>0.9866746930027124</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9969786645408747</v>
+        <v>0.9969753796940845</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.9835049428311702</v>
+        <v>0.982387808354539</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.9899310423224527</v>
+        <v>0.9903362986442286</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.9856228434333687</v>
+        <v>0.9869750787026197</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.9917258820015377</v>
+        <v>0.9911699001058804</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.9772417993338911</v>
+        <v>0.9781668134173969</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.9515954647590791</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.9619083425747701</v>
+        <v>0.9619083425747702</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.9544765500765502</v>
@@ -1649,7 +1649,7 @@
         <v>0.9583738419370593</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.9657572617396064</v>
+        <v>0.9657572617396059</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.9493839119671962</v>
+        <v>0.9502506080233234</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.9439607951321279</v>
+        <v>0.9442063685846567</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.9432054401060885</v>
+        <v>0.9431875412654169</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.9540040670453275</v>
+        <v>0.9542014120659532</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.9469089977823972</v>
+        <v>0.9470478825646441</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.9559400007053569</v>
+        <v>0.9560654682590035</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.9578962820092572</v>
+        <v>0.9579074994260827</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.9641132745697284</v>
+        <v>0.9635891255697051</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.9505020273363908</v>
+        <v>0.9504289178138369</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.9527478867812453</v>
+        <v>0.9525985522300324</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.9529160318129805</v>
+        <v>0.9534782643318644</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.9607290364309763</v>
+        <v>0.9617098517384145</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.9640961156346951</v>
+        <v>0.9646783332474834</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.9601721765670036</v>
+        <v>0.9601894539285974</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.9590063049403162</v>
+        <v>0.9587959736979185</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.9687639038014335</v>
+        <v>0.9687058471535476</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.961179340605036</v>
+        <v>0.9613449595276896</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.9697344348855507</v>
+        <v>0.9704120139096609</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.9703071076162629</v>
+        <v>0.9711322988752402</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.9741966838319767</v>
+        <v>0.9741308580848852</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.9608768266558636</v>
+        <v>0.9611002982683936</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.9631725685931765</v>
+        <v>0.962848447957984</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.9627314810165738</v>
+        <v>0.9630861192409064</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.9698289288510861</v>
+        <v>0.9702904492206458</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>468261</v>
+        <v>468009</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>425658</v>
+        <v>425022</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>395034</v>
+        <v>393282</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>374539</v>
+        <v>373491</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>427620</v>
+        <v>427645</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>409069</v>
+        <v>408311</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>376313</v>
+        <v>376462</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>342915</v>
+        <v>342470</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>901561</v>
+        <v>900888</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>838162</v>
+        <v>839896</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>775951</v>
+        <v>777118</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>726449</v>
+        <v>727627</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>483883</v>
+        <v>482851</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>442495</v>
+        <v>442524</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>410166</v>
+        <v>410145</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>400815</v>
+        <v>401097</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>447196</v>
+        <v>449903</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>423587</v>
+        <v>423427</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>389828</v>
+        <v>389876</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>361236</v>
+        <v>360136</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>928757</v>
+        <v>928066</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>862303</v>
+        <v>862859</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>796287</v>
+        <v>796366</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>758616</v>
+        <v>759121</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>691315</v>
+        <v>692620</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>644083</v>
+        <v>642680</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>554413</v>
+        <v>555281</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>448061</v>
+        <v>447846</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>580282</v>
+        <v>582059</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>573856</v>
+        <v>574209</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>530431</v>
+        <v>529397</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>480781</v>
+        <v>481319</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1280781</v>
+        <v>1279538</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1226115</v>
+        <v>1226643</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1091812</v>
+        <v>1093669</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>935088</v>
+        <v>934161</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>713771</v>
+        <v>714893</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>666670</v>
+        <v>666863</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>574584</v>
+        <v>574607</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>469306</v>
+        <v>469777</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>604405</v>
+        <v>603916</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>594498</v>
+        <v>594730</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>548077</v>
+        <v>548383</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>495252</v>
+        <v>495234</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1312416</v>
+        <v>1311131</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1255330</v>
+        <v>1257344</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>1118318</v>
+        <v>1118908</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>961303</v>
+        <v>961037</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>599108</v>
+        <v>599414</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>628894</v>
+        <v>629621</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>610592</v>
+        <v>611597</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>588233</v>
+        <v>587281</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>651085</v>
+        <v>650295</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>672426</v>
+        <v>672923</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>616836</v>
+        <v>616919</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>592730</v>
+        <v>593622</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1258444</v>
+        <v>1257611</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>1312261</v>
+        <v>1311124</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1236852</v>
+        <v>1235598</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1187836</v>
+        <v>1188613</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>621241</v>
+        <v>621787</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>655542</v>
+        <v>655912</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>638709</v>
+        <v>638393</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>608179</v>
+        <v>608089</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>672655</v>
+        <v>671847</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>695104</v>
+        <v>695083</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>638910</v>
+        <v>638885</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>608453</v>
+        <v>609070</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1288635</v>
+        <v>1288422</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>1347309</v>
+        <v>1345831</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>1270718</v>
+        <v>1271052</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>1212444</v>
+        <v>1213381</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>466800</v>
+        <v>466799</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>567235</v>
+        <v>565679</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>596427</v>
+        <v>594709</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>659596</v>
+        <v>659874</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>480898</v>
+        <v>481848</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>564950</v>
+        <v>565393</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>611008</v>
+        <v>611132</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>702449</v>
+        <v>701896</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>958298</v>
+        <v>956103</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1141512</v>
+        <v>1142175</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1215006</v>
+        <v>1214541</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1367762</v>
+        <v>1367733</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>491438</v>
+        <v>491345</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>594908</v>
+        <v>594638</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>621779</v>
+        <v>621573</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>683345</v>
+        <v>681402</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>500123</v>
+        <v>500351</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>592355</v>
+        <v>592892</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>631459</v>
+        <v>631981</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>718600</v>
+        <v>718150</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>987500</v>
+        <v>987564</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1179672</v>
+        <v>1180266</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1246947</v>
+        <v>1246805</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1395292</v>
+        <v>1396701</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>366666</v>
+        <v>366460</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>395575</v>
+        <v>392673</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>435488</v>
+        <v>434313</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>578491</v>
+        <v>580411</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>365265</v>
+        <v>364737</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>422070</v>
+        <v>421707</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>470869</v>
+        <v>470685</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>578783</v>
+        <v>578972</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>736329</v>
+        <v>736782</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>821572</v>
+        <v>821004</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>914138</v>
+        <v>912311</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1164870</v>
+        <v>1164997</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>379521</v>
+        <v>380042</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>415983</v>
+        <v>414675</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>456162</v>
+        <v>456905</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>596620</v>
+        <v>596361</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>385559</v>
+        <v>386033</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>439864</v>
+        <v>439553</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>488047</v>
+        <v>488525</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>592932</v>
+        <v>592737</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>761603</v>
+        <v>761298</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>850466</v>
+        <v>850752</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>941113</v>
+        <v>941077</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1186271</v>
+        <v>1185670</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>271409</v>
+        <v>271717</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>280528</v>
+        <v>279802</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>312759</v>
+        <v>312052</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>377770</v>
+        <v>377729</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>320135</v>
+        <v>321040</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>340650</v>
+        <v>340243</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>351115</v>
+        <v>351762</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>414272</v>
+        <v>414476</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>598105</v>
+        <v>597313</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>626178</v>
+        <v>627116</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>669643</v>
+        <v>671026</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>796881</v>
+        <v>796882</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>285993</v>
+        <v>285162</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>299553</v>
+        <v>299966</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>326986</v>
+        <v>327696</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>392275</v>
+        <v>392747</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>334815</v>
+        <v>334797</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>351264</v>
+        <v>351218</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>367948</v>
+        <v>368118</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>426841</v>
+        <v>426196</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>617379</v>
+        <v>616723</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>648655</v>
+        <v>648762</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>692022</v>
+        <v>691913</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>815834</v>
+        <v>816143</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>194829</v>
+        <v>194875</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>238418</v>
+        <v>238785</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>243746</v>
+        <v>245104</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>291813</v>
+        <v>291574</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>322473</v>
+        <v>322506</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>368811</v>
+        <v>368547</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>388804</v>
+        <v>388617</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>446595</v>
+        <v>445573</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>522661</v>
+        <v>520981</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>612813</v>
+        <v>612674</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>636852</v>
+        <v>637024</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>741852</v>
+        <v>741486</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>205514</v>
+        <v>205495</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>247889</v>
+        <v>247849</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>253791</v>
+        <v>254475</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>303371</v>
+        <v>303119</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>332721</v>
+        <v>332737</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>384510</v>
+        <v>383796</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>397693</v>
+        <v>397691</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>456945</v>
+        <v>456426</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>536494</v>
+        <v>536714</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>629645</v>
+        <v>630509</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>650469</v>
+        <v>650104</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>757174</v>
+        <v>757890</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>3104614</v>
+        <v>3107448</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>3233819</v>
+        <v>3234660</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>3196935</v>
+        <v>3196875</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>3370269</v>
+        <v>3370966</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>3197873</v>
+        <v>3198342</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>3401530</v>
+        <v>3401976</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>3389743</v>
+        <v>3389783</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>3599481</v>
+        <v>3597524</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>6318276</v>
+        <v>6317790</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>6654093</v>
+        <v>6653050</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>6601969</v>
+        <v>6605864</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>6980873</v>
+        <v>6988000</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>3152724</v>
+        <v>3154628</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>3289356</v>
+        <v>3289415</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>3250491</v>
+        <v>3249779</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>3422412</v>
+        <v>3422207</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>3246066</v>
+        <v>3246625</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>3450615</v>
+        <v>3453026</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>3433662</v>
+        <v>3436582</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>3637127</v>
+        <v>3636882</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>6387240</v>
+        <v>6388726</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>6726900</v>
+        <v>6724637</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>6669972</v>
+        <v>6672429</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>7046995</v>
+        <v>7050349</v>
       </c>
     </row>
     <row r="36">
